--- a/level 3/codeforces - phase 3-1.xlsx
+++ b/level 3/codeforces - phase 3-1.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="8820" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="problem solving level 3.1" sheetId="1" r:id="rId1"/>
+    <sheet name="codeforces level 3.1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -643,6 +643,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -666,15 +675,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4575,78 +4575,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="33" t="s">
+      <c r="J1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="33" t="s">
+      <c r="K1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="33" t="s">
+      <c r="M1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="N1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="O1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="P1" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="4" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="33" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="30"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="5">
         <f t="shared" ref="C3:H3" si="0">SUM(C4:C1072)</f>
         <v>5</v>
@@ -6928,7 +6928,7 @@
       <c r="K80" s="13"/>
       <c r="L80" s="13"/>
       <c r="M80" s="8">
-        <f t="shared" ref="M79:M103" si="3">SUM(I80:L80)</f>
+        <f t="shared" ref="M80:M103" si="3">SUM(I80:L80)</f>
         <v>0</v>
       </c>
       <c r="N80" s="11"/>
@@ -11230,6 +11230,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="L1:L2"/>
@@ -11238,14 +11246,6 @@
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="P7 P17:P20 P28:P31 P35:P43 P110:P118 O9:O27 N28:O36 N57:O103">
     <cfRule type="cellIs" dxfId="513" priority="854" operator="equal">
